--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1206.630740.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1206.630740.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{281D01AC-86B9-4216-B947-5BD9D10D7B40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FBF59CA-F7B2-41D9-AC80-EA980AF51FBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-18T070908.800" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-02-24T072055.959" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>

--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1206.630740.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1206.630740.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FBF59CA-F7B2-41D9-AC80-EA980AF51FBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CD619AD-A53C-40B8-9393-75F3B352C717}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-24T072055.959" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-03-03T072606.170" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
